--- a/inference2/Proofs/modular_stability2.xlsx
+++ b/inference2/Proofs/modular_stability2.xlsx
@@ -35,7 +35,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
-      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,10 +101,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$33:$C$190</c:f>
+              <c:f>Sheet3!$C$33:$C$230</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="158"/>
+                <c:ptCount val="198"/>
                 <c:pt idx="0">
                   <c:v>30.0</c:v>
                 </c:pt>
@@ -579,6 +578,93 @@
                 </c:pt>
                 <c:pt idx="157">
                   <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,11 +681,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1588473896"/>
-        <c:axId val="1579781992"/>
+        <c:axId val="1817896104"/>
+        <c:axId val="1817898904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1588473896"/>
+        <c:axId val="1817896104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -608,7 +694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1579781992"/>
+        <c:crossAx val="1817898904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -616,7 +702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1579781992"/>
+        <c:axId val="1817898904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -627,7 +713,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1588473896"/>
+        <c:crossAx val="1817896104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1042,12 +1128,54 @@
             <v>18-Feb</v>
           </cell>
           <cell r="B26">
-            <v>4855</v>
+            <v>4877</v>
           </cell>
           <cell r="C26">
-            <v>300</v>
+            <v>303</v>
           </cell>
           <cell r="D26">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>19-Feb</v>
+          </cell>
+          <cell r="B27">
+            <v>5084</v>
+          </cell>
+          <cell r="C27">
+            <v>313</v>
+          </cell>
+          <cell r="D27">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>20-Feb</v>
+          </cell>
+          <cell r="B28">
+            <v>5113</v>
+          </cell>
+          <cell r="C28">
+            <v>314</v>
+          </cell>
+          <cell r="D28">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>21-Feb</v>
+          </cell>
+          <cell r="B29">
+            <v>5128</v>
+          </cell>
+          <cell r="C29">
+            <v>315</v>
+          </cell>
+          <cell r="D29">
             <v>15</v>
           </cell>
         </row>
@@ -1061,38 +1189,28 @@
           <cell r="B1">
             <v>19</v>
           </cell>
-          <cell r="C1"/>
         </row>
         <row r="2">
-          <cell r="A2"/>
           <cell r="B2">
             <v>12.121212121212121</v>
           </cell>
-          <cell r="C2"/>
         </row>
         <row r="3">
-          <cell r="A3"/>
           <cell r="B3">
             <v>33</v>
           </cell>
-          <cell r="C3"/>
         </row>
         <row r="4">
-          <cell r="A4"/>
           <cell r="B4">
             <v>31</v>
           </cell>
-          <cell r="C4"/>
         </row>
         <row r="5">
-          <cell r="A5"/>
           <cell r="B5">
             <v>36</v>
           </cell>
-          <cell r="C5"/>
         </row>
         <row r="6">
-          <cell r="A6"/>
           <cell r="B6">
             <v>24</v>
           </cell>
@@ -1101,7 +1219,6 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="A7"/>
           <cell r="B7">
             <v>9</v>
           </cell>
@@ -1110,7 +1227,6 @@
           </cell>
         </row>
         <row r="8">
-          <cell r="A8"/>
           <cell r="B8">
             <v>26</v>
           </cell>
@@ -1119,7 +1235,6 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="A9"/>
           <cell r="B9">
             <v>8</v>
           </cell>
@@ -1139,7 +1254,6 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11"/>
           <cell r="B11">
             <v>24</v>
           </cell>
@@ -1148,7 +1262,6 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="A12"/>
           <cell r="B12">
             <v>20</v>
           </cell>
@@ -1157,7 +1270,6 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="A13"/>
           <cell r="B13">
             <v>10</v>
           </cell>
@@ -1177,7 +1289,6 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="A15"/>
           <cell r="B15">
             <v>35</v>
           </cell>
@@ -1186,7 +1297,6 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
           <cell r="B16">
             <v>30</v>
           </cell>
@@ -1195,7 +1305,6 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="A17"/>
           <cell r="B17">
             <v>35</v>
           </cell>
@@ -1204,7 +1313,6 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="A18"/>
           <cell r="B18">
             <v>18</v>
           </cell>
@@ -1213,7 +1321,6 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19"/>
           <cell r="B19">
             <v>11</v>
           </cell>
@@ -1222,7 +1329,6 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="A20"/>
           <cell r="B20">
             <v>29</v>
           </cell>
@@ -1231,7 +1337,6 @@
           </cell>
         </row>
         <row r="21">
-          <cell r="A21"/>
           <cell r="B21">
             <v>29</v>
           </cell>
@@ -1251,7 +1356,6 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="A23"/>
           <cell r="B23">
             <v>21</v>
           </cell>
@@ -1260,7 +1364,6 @@
           </cell>
         </row>
         <row r="24">
-          <cell r="A24"/>
           <cell r="B24">
             <v>35</v>
           </cell>
@@ -1269,7 +1372,6 @@
           </cell>
         </row>
         <row r="25">
-          <cell r="A25"/>
           <cell r="B25">
             <v>38</v>
           </cell>
@@ -1289,7 +1391,6 @@
           </cell>
         </row>
         <row r="27">
-          <cell r="A27"/>
           <cell r="B27">
             <v>35</v>
           </cell>
@@ -1304,35 +1405,26 @@
           <cell r="B28">
             <v>25</v>
           </cell>
-          <cell r="C28"/>
         </row>
         <row r="29">
-          <cell r="A29"/>
           <cell r="B29">
             <v>17</v>
           </cell>
-          <cell r="C29"/>
         </row>
         <row r="30">
-          <cell r="A30"/>
           <cell r="B30">
             <v>18</v>
           </cell>
-          <cell r="C30"/>
         </row>
         <row r="31">
-          <cell r="A31"/>
           <cell r="B31">
             <v>33</v>
           </cell>
-          <cell r="C31"/>
         </row>
         <row r="32">
-          <cell r="A32"/>
           <cell r="B32">
             <v>54</v>
           </cell>
-          <cell r="C32"/>
         </row>
         <row r="33">
           <cell r="A33">
@@ -1346,7 +1438,6 @@
           </cell>
         </row>
         <row r="34">
-          <cell r="A34"/>
           <cell r="B34">
             <v>18</v>
           </cell>
@@ -1355,7 +1446,6 @@
           </cell>
         </row>
         <row r="35">
-          <cell r="A35"/>
           <cell r="B35">
             <v>41</v>
           </cell>
@@ -1364,7 +1454,6 @@
           </cell>
         </row>
         <row r="36">
-          <cell r="A36"/>
           <cell r="B36">
             <v>38</v>
           </cell>
@@ -1373,7 +1462,6 @@
           </cell>
         </row>
         <row r="37">
-          <cell r="A37"/>
           <cell r="B37">
             <v>32</v>
           </cell>
@@ -1393,7 +1481,6 @@
           </cell>
         </row>
         <row r="39">
-          <cell r="A39"/>
           <cell r="B39">
             <v>31</v>
           </cell>
@@ -1402,7 +1489,6 @@
           </cell>
         </row>
         <row r="40">
-          <cell r="A40"/>
           <cell r="B40">
             <v>23</v>
           </cell>
@@ -1411,7 +1497,6 @@
           </cell>
         </row>
         <row r="41">
-          <cell r="A41"/>
           <cell r="B41">
             <v>6</v>
           </cell>
@@ -1420,7 +1505,6 @@
           </cell>
         </row>
         <row r="42">
-          <cell r="A42"/>
           <cell r="B42">
             <v>22</v>
           </cell>
@@ -1440,7 +1524,6 @@
           </cell>
         </row>
         <row r="44">
-          <cell r="A44"/>
           <cell r="B44">
             <v>25</v>
           </cell>
@@ -1449,7 +1532,6 @@
           </cell>
         </row>
         <row r="45">
-          <cell r="A45"/>
           <cell r="B45">
             <v>22</v>
           </cell>
@@ -1458,7 +1540,6 @@
           </cell>
         </row>
         <row r="46">
-          <cell r="A46"/>
           <cell r="B46">
             <v>14</v>
           </cell>
@@ -1467,7 +1548,6 @@
           </cell>
         </row>
         <row r="47">
-          <cell r="A47"/>
           <cell r="B47">
             <v>16</v>
           </cell>
@@ -1487,7 +1567,6 @@
           </cell>
         </row>
         <row r="49">
-          <cell r="A49"/>
           <cell r="B49">
             <v>13</v>
           </cell>
@@ -1496,7 +1575,6 @@
           </cell>
         </row>
         <row r="50">
-          <cell r="A50"/>
           <cell r="B50">
             <v>22</v>
           </cell>
@@ -1505,7 +1583,6 @@
           </cell>
         </row>
         <row r="51">
-          <cell r="A51"/>
           <cell r="B51">
             <v>53</v>
           </cell>
@@ -1514,7 +1591,6 @@
           </cell>
         </row>
         <row r="52">
-          <cell r="A52"/>
           <cell r="B52">
             <v>50</v>
           </cell>
@@ -1523,7 +1599,6 @@
           </cell>
         </row>
         <row r="53">
-          <cell r="A53"/>
           <cell r="B53">
             <v>72</v>
           </cell>
@@ -1543,7 +1618,6 @@
           </cell>
         </row>
         <row r="55">
-          <cell r="A55"/>
           <cell r="B55">
             <v>1</v>
           </cell>
@@ -1552,7 +1626,6 @@
           </cell>
         </row>
         <row r="56">
-          <cell r="A56"/>
           <cell r="B56">
             <v>25</v>
           </cell>
@@ -1561,7 +1634,6 @@
           </cell>
         </row>
         <row r="57">
-          <cell r="A57"/>
           <cell r="B57">
             <v>13</v>
           </cell>
@@ -1570,7 +1642,6 @@
           </cell>
         </row>
         <row r="58">
-          <cell r="A58"/>
           <cell r="B58">
             <v>10</v>
           </cell>
@@ -1590,7 +1661,6 @@
           </cell>
         </row>
         <row r="60">
-          <cell r="A60"/>
           <cell r="B60">
             <v>39</v>
           </cell>
@@ -1599,7 +1669,6 @@
           </cell>
         </row>
         <row r="61">
-          <cell r="A61"/>
           <cell r="B61">
             <v>21</v>
           </cell>
@@ -1608,7 +1677,6 @@
           </cell>
         </row>
         <row r="62">
-          <cell r="A62"/>
           <cell r="B62">
             <v>55</v>
           </cell>
@@ -1617,7 +1685,6 @@
           </cell>
         </row>
         <row r="63">
-          <cell r="A63"/>
           <cell r="B63">
             <v>34</v>
           </cell>
@@ -1626,7 +1693,6 @@
           </cell>
         </row>
         <row r="64">
-          <cell r="A64"/>
           <cell r="B64">
             <v>28</v>
           </cell>
@@ -1646,7 +1712,6 @@
           </cell>
         </row>
         <row r="66">
-          <cell r="A66"/>
           <cell r="B66">
             <v>38</v>
           </cell>
@@ -1655,7 +1720,6 @@
           </cell>
         </row>
         <row r="67">
-          <cell r="A67"/>
           <cell r="B67">
             <v>22</v>
           </cell>
@@ -1664,7 +1728,6 @@
           </cell>
         </row>
         <row r="68">
-          <cell r="A68"/>
           <cell r="B68">
             <v>11</v>
           </cell>
@@ -1673,7 +1736,6 @@
           </cell>
         </row>
         <row r="69">
-          <cell r="A69"/>
           <cell r="B69">
             <v>10</v>
           </cell>
@@ -1693,7 +1755,6 @@
           </cell>
         </row>
         <row r="71">
-          <cell r="A71"/>
           <cell r="B71">
             <v>20</v>
           </cell>
@@ -1702,7 +1763,6 @@
           </cell>
         </row>
         <row r="72">
-          <cell r="A72"/>
           <cell r="B72">
             <v>4</v>
           </cell>
@@ -1711,7 +1771,6 @@
           </cell>
         </row>
         <row r="73">
-          <cell r="A73"/>
           <cell r="B73">
             <v>10</v>
           </cell>
@@ -1731,7 +1790,6 @@
           </cell>
         </row>
         <row r="75">
-          <cell r="A75"/>
           <cell r="B75">
             <v>33</v>
           </cell>
@@ -1740,7 +1798,6 @@
           </cell>
         </row>
         <row r="76">
-          <cell r="A76"/>
           <cell r="B76">
             <v>40</v>
           </cell>
@@ -1749,7 +1806,6 @@
           </cell>
         </row>
         <row r="77">
-          <cell r="A77"/>
           <cell r="B77">
             <v>37</v>
           </cell>
@@ -1758,7 +1814,6 @@
           </cell>
         </row>
         <row r="78">
-          <cell r="A78"/>
           <cell r="B78">
             <v>34</v>
           </cell>
@@ -1778,7 +1833,6 @@
           </cell>
         </row>
         <row r="80">
-          <cell r="A80"/>
           <cell r="B80">
             <v>49</v>
           </cell>
@@ -1787,7 +1841,6 @@
           </cell>
         </row>
         <row r="81">
-          <cell r="A81"/>
           <cell r="B81">
             <v>7</v>
           </cell>
@@ -1796,7 +1849,6 @@
           </cell>
         </row>
         <row r="82">
-          <cell r="A82"/>
           <cell r="B82">
             <v>46</v>
           </cell>
@@ -1805,7 +1857,6 @@
           </cell>
         </row>
         <row r="83">
-          <cell r="A83"/>
           <cell r="B83">
             <v>16</v>
           </cell>
@@ -1825,7 +1876,6 @@
           </cell>
         </row>
         <row r="85">
-          <cell r="A85"/>
           <cell r="B85">
             <v>11</v>
           </cell>
@@ -1834,7 +1884,6 @@
           </cell>
         </row>
         <row r="86">
-          <cell r="A86"/>
           <cell r="B86">
             <v>14</v>
           </cell>
@@ -1843,7 +1892,6 @@
           </cell>
         </row>
         <row r="87">
-          <cell r="A87"/>
           <cell r="B87">
             <v>25</v>
           </cell>
@@ -1852,7 +1900,6 @@
           </cell>
         </row>
         <row r="88">
-          <cell r="A88"/>
           <cell r="B88">
             <v>22</v>
           </cell>
@@ -1861,7 +1908,6 @@
           </cell>
         </row>
         <row r="89">
-          <cell r="A89"/>
           <cell r="B89">
             <v>15</v>
           </cell>
@@ -1881,7 +1927,6 @@
           </cell>
         </row>
         <row r="91">
-          <cell r="A91"/>
           <cell r="B91">
             <v>12</v>
           </cell>
@@ -1890,7 +1935,6 @@
           </cell>
         </row>
         <row r="92">
-          <cell r="A92"/>
           <cell r="B92">
             <v>24</v>
           </cell>
@@ -1899,7 +1943,6 @@
           </cell>
         </row>
         <row r="93">
-          <cell r="A93"/>
           <cell r="B93">
             <v>42</v>
           </cell>
@@ -1908,7 +1951,6 @@
           </cell>
         </row>
         <row r="94">
-          <cell r="A94"/>
           <cell r="B94">
             <v>27</v>
           </cell>
@@ -1917,7 +1959,6 @@
           </cell>
         </row>
         <row r="95">
-          <cell r="A95"/>
           <cell r="B95">
             <v>15</v>
           </cell>
@@ -1937,7 +1978,6 @@
           </cell>
         </row>
         <row r="97">
-          <cell r="A97"/>
           <cell r="B97">
             <v>23</v>
           </cell>
@@ -1946,7 +1986,6 @@
           </cell>
         </row>
         <row r="98">
-          <cell r="A98"/>
           <cell r="B98">
             <v>20</v>
           </cell>
@@ -1955,7 +1994,6 @@
           </cell>
         </row>
         <row r="99">
-          <cell r="A99"/>
           <cell r="B99">
             <v>35</v>
           </cell>
@@ -1964,7 +2002,6 @@
           </cell>
         </row>
         <row r="100">
-          <cell r="A100"/>
           <cell r="B100">
             <v>9</v>
           </cell>
@@ -1973,7 +2010,6 @@
           </cell>
         </row>
         <row r="101">
-          <cell r="A101"/>
           <cell r="B101">
             <v>18</v>
           </cell>
@@ -1993,7 +2029,6 @@
           </cell>
         </row>
         <row r="103">
-          <cell r="A103"/>
           <cell r="B103">
             <v>22</v>
           </cell>
@@ -2002,7 +2037,6 @@
           </cell>
         </row>
         <row r="104">
-          <cell r="A104"/>
           <cell r="B104">
             <v>2</v>
           </cell>
@@ -2965,6 +2999,127 @@
           </cell>
           <cell r="C191">
             <v>34</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="A192" t="str">
+            <v>18-Feb</v>
+          </cell>
+          <cell r="B192">
+            <v>32</v>
+          </cell>
+          <cell r="C192">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="A193" t="str">
+            <v>19-Feb</v>
+          </cell>
+          <cell r="B193">
+            <v>18</v>
+          </cell>
+          <cell r="C193">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="A194" t="str">
+            <v>19-Feb</v>
+          </cell>
+          <cell r="B194">
+            <v>45</v>
+          </cell>
+          <cell r="C194">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="A195" t="str">
+            <v>19-Feb</v>
+          </cell>
+          <cell r="B195">
+            <v>36</v>
+          </cell>
+          <cell r="C195">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="A196" t="str">
+            <v>19-Feb</v>
+          </cell>
+          <cell r="B196">
+            <v>38</v>
+          </cell>
+          <cell r="C196">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="A197" t="str">
+            <v>20-Feb</v>
+          </cell>
+          <cell r="B197">
+            <v>39</v>
+          </cell>
+          <cell r="C197">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="A198" t="str">
+            <v>20-Feb</v>
+          </cell>
+          <cell r="B198">
+            <v>38</v>
+          </cell>
+          <cell r="C198">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199" t="str">
+            <v>21-Feb</v>
+          </cell>
+          <cell r="B199">
+            <v>21</v>
+          </cell>
+          <cell r="C199">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="A200" t="str">
+            <v>21-Feb</v>
+          </cell>
+          <cell r="B200">
+            <v>25</v>
+          </cell>
+          <cell r="C200">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="A201" t="str">
+            <v>22-Feb</v>
+          </cell>
+          <cell r="B201">
+            <v>43</v>
+          </cell>
+          <cell r="C201">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="A202" t="str">
+            <v>22-Feb</v>
+          </cell>
+          <cell r="B202">
+            <v>53</v>
+          </cell>
+          <cell r="C202">
+            <v>36</v>
           </cell>
         </row>
       </sheetData>
@@ -3764,11 +3919,11 @@
       </c>
       <c r="B26">
         <f>[1]Sheet1!B26</f>
-        <v>4855</v>
+        <v>4877</v>
       </c>
       <c r="C26">
         <f>[1]Sheet1!C26</f>
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D26">
         <f>[1]Sheet1!D26</f>
@@ -3776,57 +3931,57 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27">
+      <c r="A27" t="str">
         <f>[1]Sheet1!A27</f>
-        <v>0</v>
+        <v>19-Feb</v>
       </c>
       <c r="B27">
         <f>[1]Sheet1!B27</f>
-        <v>0</v>
+        <v>5084</v>
       </c>
       <c r="C27">
         <f>[1]Sheet1!C27</f>
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="D27">
         <f>[1]Sheet1!D27</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28">
+      <c r="A28" t="str">
         <f>[1]Sheet1!A28</f>
-        <v>0</v>
+        <v>20-Feb</v>
       </c>
       <c r="B28">
         <f>[1]Sheet1!B28</f>
-        <v>0</v>
+        <v>5113</v>
       </c>
       <c r="C28">
         <f>[1]Sheet1!C28</f>
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="D28">
         <f>[1]Sheet1!D28</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29">
+      <c r="A29" t="str">
         <f>[1]Sheet1!A29</f>
-        <v>0</v>
+        <v>21-Feb</v>
       </c>
       <c r="B29">
         <f>[1]Sheet1!B29</f>
-        <v>0</v>
+        <v>5128</v>
       </c>
       <c r="C29">
         <f>[1]Sheet1!C29</f>
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="D29">
         <f>[1]Sheet1!D29</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3860,8 +4015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C219"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="Q96" sqref="Q96"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="Q100" sqref="Q100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6545,157 +6700,157 @@
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="3">
+      <c r="A192" s="3" t="str">
         <f>[1]Sheet3!A192</f>
-        <v>0</v>
+        <v>18-Feb</v>
       </c>
       <c r="B192">
         <f>[1]Sheet3!B192</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C192" s="2">
         <f>[1]Sheet3!C192</f>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="3">
+      <c r="A193" s="3" t="str">
         <f>[1]Sheet3!A193</f>
-        <v>0</v>
+        <v>19-Feb</v>
       </c>
       <c r="B193">
         <f>[1]Sheet3!B193</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C193" s="2">
         <f>[1]Sheet3!C193</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="3">
+      <c r="A194" s="3" t="str">
         <f>[1]Sheet3!A194</f>
-        <v>0</v>
+        <v>19-Feb</v>
       </c>
       <c r="B194">
         <f>[1]Sheet3!B194</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C194" s="2">
         <f>[1]Sheet3!C194</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="3">
+      <c r="A195" s="3" t="str">
         <f>[1]Sheet3!A195</f>
-        <v>0</v>
+        <v>19-Feb</v>
       </c>
       <c r="B195">
         <f>[1]Sheet3!B195</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C195" s="2">
         <f>[1]Sheet3!C195</f>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="3">
+      <c r="A196" s="3" t="str">
         <f>[1]Sheet3!A196</f>
-        <v>0</v>
+        <v>19-Feb</v>
       </c>
       <c r="B196">
         <f>[1]Sheet3!B196</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C196" s="2">
         <f>[1]Sheet3!C196</f>
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="3">
+      <c r="A197" s="3" t="str">
         <f>[1]Sheet3!A197</f>
-        <v>0</v>
+        <v>20-Feb</v>
       </c>
       <c r="B197">
         <f>[1]Sheet3!B197</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C197" s="2">
         <f>[1]Sheet3!C197</f>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="3">
+      <c r="A198" s="3" t="str">
         <f>[1]Sheet3!A198</f>
-        <v>0</v>
+        <v>20-Feb</v>
       </c>
       <c r="B198">
         <f>[1]Sheet3!B198</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C198" s="2">
         <f>[1]Sheet3!C198</f>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="3">
+      <c r="A199" s="3" t="str">
         <f>[1]Sheet3!A199</f>
-        <v>0</v>
+        <v>21-Feb</v>
       </c>
       <c r="B199">
         <f>[1]Sheet3!B199</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C199" s="2">
         <f>[1]Sheet3!C199</f>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="3">
+      <c r="A200" s="3" t="str">
         <f>[1]Sheet3!A200</f>
-        <v>0</v>
+        <v>21-Feb</v>
       </c>
       <c r="B200">
         <f>[1]Sheet3!B200</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C200" s="2">
         <f>[1]Sheet3!C200</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="3">
+      <c r="A201" s="3" t="str">
         <f>[1]Sheet3!A201</f>
-        <v>0</v>
+        <v>22-Feb</v>
       </c>
       <c r="B201">
         <f>[1]Sheet3!B201</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C201" s="2">
         <f>[1]Sheet3!C201</f>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="3">
+      <c r="A202" s="3" t="str">
         <f>[1]Sheet3!A202</f>
-        <v>0</v>
+        <v>22-Feb</v>
       </c>
       <c r="B202">
         <f>[1]Sheet3!B202</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C202" s="2">
         <f>[1]Sheet3!C202</f>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="203" spans="1:3">
